--- a/biology/Botanique/Chlorodendrales/Chlorodendrales.xlsx
+++ b/biology/Botanique/Chlorodendrales/Chlorodendrales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’ordre des Chlorodendrales est un ordre d’algues vertes qui est le seul ordre de la classe des Chlorodendrophyceae dans la division des Chlorophyta. Cet ordre est unique car les écailles fusionnent pour former une thèque. Les cellules de cet ordre sont entièrement recouvertes d'écailles, qui fusionnent extracellulairement pour former la thèque mais restent séparées individuellement sur le flagelle. Les espèces composant les Chlorodendrales vivent aussi bien en eau douce qu'en eau salée et sont aussi bien benthiques que planctoniques.
 </t>
@@ -511,12 +523,14 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (2 mai 2013)[1] et World Register of Marine Species                               (2 mai 2013)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (2 mai 2013) et World Register of Marine Species                               (2 mai 2013) :
 famille des Chlorodendraceae (en) Oltmanns
 famille des Halosphaeraceae (hr) Haeckel
-Selon ITIS      (2 mai 2013)[3] :
+Selon ITIS      (2 mai 2013) :
 famille des Chlorodendraceae
 famille des Halosphaeraceae
 famille des Platymonadaceae</t>
